--- a/2022/Samsung/APRIL/19.04.2022/SAMSUNG Bank Statement April-2022.xlsx
+++ b/2022/Samsung/APRIL/19.04.2022/SAMSUNG Bank Statement April-2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="803" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="803" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="March 2021" sheetId="7" state="hidden" r:id="rId1"/>
@@ -2416,7 +2416,7 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="470">
+  <cellXfs count="471">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3528,6 +3528,21 @@
     <xf numFmtId="1" fontId="33" fillId="42" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="15" fontId="42" fillId="46" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="46" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="32" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="32" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="43" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3669,6 +3684,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="42" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="42" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="45" fillId="37" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="45" fillId="37" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="42" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="42" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="35" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3678,10 +3717,16 @@
     <xf numFmtId="0" fontId="11" fillId="35" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="42" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="42" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="42" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="42" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3693,21 +3738,9 @@
     <xf numFmtId="0" fontId="41" fillId="42" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="45" fillId="37" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="45" fillId="37" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="45" fillId="41" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3723,41 +3756,11 @@
     <xf numFmtId="0" fontId="0" fillId="41" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="42" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="42" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="42" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="42" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="42" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="42" fillId="46" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="46" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="32" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="32" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="36" fillId="42" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="43" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="55">
@@ -4216,33 +4219,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A1" s="395"/>
-      <c r="B1" s="395"/>
-      <c r="C1" s="395"/>
-      <c r="D1" s="395"/>
-      <c r="E1" s="395"/>
-      <c r="F1" s="395"/>
+      <c r="A1" s="400"/>
+      <c r="B1" s="400"/>
+      <c r="C1" s="400"/>
+      <c r="D1" s="400"/>
+      <c r="E1" s="400"/>
+      <c r="F1" s="400"/>
     </row>
     <row r="2" spans="1:8" ht="20.25">
-      <c r="A2" s="396"/>
-      <c r="B2" s="393" t="s">
+      <c r="A2" s="401"/>
+      <c r="B2" s="398" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="393"/>
-      <c r="D2" s="393"/>
-      <c r="E2" s="393"/>
+      <c r="C2" s="398"/>
+      <c r="D2" s="398"/>
+      <c r="E2" s="398"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A3" s="396"/>
-      <c r="B3" s="394" t="s">
+      <c r="A3" s="401"/>
+      <c r="B3" s="399" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="394"/>
-      <c r="D3" s="394"/>
-      <c r="E3" s="394"/>
+      <c r="C3" s="399"/>
+      <c r="D3" s="399"/>
+      <c r="E3" s="399"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A4" s="396"/>
+      <c r="A4" s="401"/>
       <c r="B4" s="22" t="s">
         <v>0</v>
       </c>
@@ -4260,7 +4263,7 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="396"/>
+      <c r="A5" s="401"/>
       <c r="B5" s="24" t="s">
         <v>3</v>
       </c>
@@ -4278,7 +4281,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="396"/>
+      <c r="A6" s="401"/>
       <c r="B6" s="26"/>
       <c r="C6" s="25"/>
       <c r="D6" s="25"/>
@@ -4290,7 +4293,7 @@
       <c r="G6" s="19"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="396"/>
+      <c r="A7" s="401"/>
       <c r="B7" s="26" t="s">
         <v>42</v>
       </c>
@@ -4309,7 +4312,7 @@
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="396"/>
+      <c r="A8" s="401"/>
       <c r="B8" s="26" t="s">
         <v>43</v>
       </c>
@@ -4328,7 +4331,7 @@
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="396"/>
+      <c r="A9" s="401"/>
       <c r="B9" s="26" t="s">
         <v>45</v>
       </c>
@@ -4347,7 +4350,7 @@
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="396"/>
+      <c r="A10" s="401"/>
       <c r="B10" s="26" t="s">
         <v>46</v>
       </c>
@@ -4366,7 +4369,7 @@
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="396"/>
+      <c r="A11" s="401"/>
       <c r="B11" s="26" t="s">
         <v>47</v>
       </c>
@@ -4385,7 +4388,7 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="396"/>
+      <c r="A12" s="401"/>
       <c r="B12" s="26" t="s">
         <v>48</v>
       </c>
@@ -4404,7 +4407,7 @@
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="396"/>
+      <c r="A13" s="401"/>
       <c r="B13" s="26" t="s">
         <v>49</v>
       </c>
@@ -4423,7 +4426,7 @@
       <c r="H13" s="30"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="396"/>
+      <c r="A14" s="401"/>
       <c r="B14" s="26" t="s">
         <v>50</v>
       </c>
@@ -4442,7 +4445,7 @@
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="396"/>
+      <c r="A15" s="401"/>
       <c r="B15" s="26" t="s">
         <v>51</v>
       </c>
@@ -4461,7 +4464,7 @@
       <c r="H15" s="11"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="396"/>
+      <c r="A16" s="401"/>
       <c r="B16" s="26"/>
       <c r="C16" s="25"/>
       <c r="D16" s="25"/>
@@ -4474,7 +4477,7 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="396"/>
+      <c r="A17" s="401"/>
       <c r="B17" s="26"/>
       <c r="C17" s="25"/>
       <c r="D17" s="25"/>
@@ -4487,7 +4490,7 @@
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="396"/>
+      <c r="A18" s="401"/>
       <c r="B18" s="26"/>
       <c r="C18" s="25"/>
       <c r="D18" s="25"/>
@@ -4500,7 +4503,7 @@
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A19" s="396"/>
+      <c r="A19" s="401"/>
       <c r="B19" s="26"/>
       <c r="C19" s="25"/>
       <c r="D19" s="25"/>
@@ -4513,7 +4516,7 @@
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="396"/>
+      <c r="A20" s="401"/>
       <c r="B20" s="26"/>
       <c r="C20" s="25"/>
       <c r="D20" s="25"/>
@@ -4526,7 +4529,7 @@
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="396"/>
+      <c r="A21" s="401"/>
       <c r="B21" s="26"/>
       <c r="C21" s="25"/>
       <c r="D21" s="25"/>
@@ -4539,7 +4542,7 @@
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="396"/>
+      <c r="A22" s="401"/>
       <c r="B22" s="26"/>
       <c r="C22" s="25"/>
       <c r="D22" s="25"/>
@@ -4552,7 +4555,7 @@
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="396"/>
+      <c r="A23" s="401"/>
       <c r="B23" s="26"/>
       <c r="C23" s="25"/>
       <c r="D23" s="25"/>
@@ -4565,7 +4568,7 @@
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="396"/>
+      <c r="A24" s="401"/>
       <c r="B24" s="26"/>
       <c r="C24" s="25"/>
       <c r="D24" s="25"/>
@@ -4578,7 +4581,7 @@
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="396"/>
+      <c r="A25" s="401"/>
       <c r="B25" s="26"/>
       <c r="C25" s="25"/>
       <c r="D25" s="25"/>
@@ -4591,7 +4594,7 @@
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="396"/>
+      <c r="A26" s="401"/>
       <c r="B26" s="26"/>
       <c r="C26" s="25"/>
       <c r="D26" s="25"/>
@@ -4604,7 +4607,7 @@
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="396"/>
+      <c r="A27" s="401"/>
       <c r="B27" s="26"/>
       <c r="C27" s="25"/>
       <c r="D27" s="25"/>
@@ -4617,7 +4620,7 @@
       <c r="H27" s="21"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="396"/>
+      <c r="A28" s="401"/>
       <c r="B28" s="26"/>
       <c r="C28" s="25"/>
       <c r="D28" s="25"/>
@@ -4630,7 +4633,7 @@
       <c r="H28" s="21"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="396"/>
+      <c r="A29" s="401"/>
       <c r="B29" s="26"/>
       <c r="C29" s="25"/>
       <c r="D29" s="25"/>
@@ -4643,7 +4646,7 @@
       <c r="H29" s="21"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="396"/>
+      <c r="A30" s="401"/>
       <c r="B30" s="26"/>
       <c r="C30" s="25"/>
       <c r="D30" s="25"/>
@@ -4656,7 +4659,7 @@
       <c r="H30" s="21"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="396"/>
+      <c r="A31" s="401"/>
       <c r="B31" s="26"/>
       <c r="C31" s="25"/>
       <c r="D31" s="25"/>
@@ -4669,7 +4672,7 @@
       <c r="H31" s="21"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="396"/>
+      <c r="A32" s="401"/>
       <c r="B32" s="26"/>
       <c r="C32" s="25"/>
       <c r="D32" s="25"/>
@@ -4682,7 +4685,7 @@
       <c r="H32" s="21"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="396"/>
+      <c r="A33" s="401"/>
       <c r="B33" s="26"/>
       <c r="C33" s="25"/>
       <c r="D33" s="28"/>
@@ -4695,7 +4698,7 @@
       <c r="H33" s="21"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="396"/>
+      <c r="A34" s="401"/>
       <c r="B34" s="26"/>
       <c r="C34" s="25"/>
       <c r="D34" s="25"/>
@@ -4708,7 +4711,7 @@
       <c r="H34" s="21"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="396"/>
+      <c r="A35" s="401"/>
       <c r="B35" s="26"/>
       <c r="C35" s="25"/>
       <c r="D35" s="25"/>
@@ -4721,7 +4724,7 @@
       <c r="H35" s="21"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="396"/>
+      <c r="A36" s="401"/>
       <c r="B36" s="26"/>
       <c r="C36" s="25"/>
       <c r="D36" s="25"/>
@@ -4734,7 +4737,7 @@
       <c r="H36" s="21"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="396"/>
+      <c r="A37" s="401"/>
       <c r="B37" s="26"/>
       <c r="C37" s="25"/>
       <c r="D37" s="25"/>
@@ -4747,7 +4750,7 @@
       <c r="H37" s="21"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="396"/>
+      <c r="A38" s="401"/>
       <c r="B38" s="26"/>
       <c r="C38" s="25"/>
       <c r="D38" s="25"/>
@@ -4760,7 +4763,7 @@
       <c r="H38" s="21"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="396"/>
+      <c r="A39" s="401"/>
       <c r="B39" s="26"/>
       <c r="C39" s="25"/>
       <c r="D39" s="25"/>
@@ -4773,7 +4776,7 @@
       <c r="H39" s="21"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="396"/>
+      <c r="A40" s="401"/>
       <c r="B40" s="26"/>
       <c r="C40" s="25"/>
       <c r="D40" s="25"/>
@@ -4786,7 +4789,7 @@
       <c r="H40" s="21"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="396"/>
+      <c r="A41" s="401"/>
       <c r="B41" s="26"/>
       <c r="C41" s="25"/>
       <c r="D41" s="25"/>
@@ -4799,7 +4802,7 @@
       <c r="H41" s="21"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="396"/>
+      <c r="A42" s="401"/>
       <c r="B42" s="26"/>
       <c r="C42" s="25"/>
       <c r="D42" s="25"/>
@@ -4812,7 +4815,7 @@
       <c r="H42" s="21"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="396"/>
+      <c r="A43" s="401"/>
       <c r="B43" s="26"/>
       <c r="C43" s="25"/>
       <c r="D43" s="25"/>
@@ -4825,7 +4828,7 @@
       <c r="H43" s="21"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="396"/>
+      <c r="A44" s="401"/>
       <c r="B44" s="26"/>
       <c r="C44" s="25"/>
       <c r="D44" s="25"/>
@@ -4838,7 +4841,7 @@
       <c r="H44" s="21"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="396"/>
+      <c r="A45" s="401"/>
       <c r="B45" s="26"/>
       <c r="C45" s="25"/>
       <c r="D45" s="25"/>
@@ -4851,7 +4854,7 @@
       <c r="H45" s="21"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="396"/>
+      <c r="A46" s="401"/>
       <c r="B46" s="26"/>
       <c r="C46" s="25"/>
       <c r="D46" s="25"/>
@@ -4864,7 +4867,7 @@
       <c r="H46" s="21"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="396"/>
+      <c r="A47" s="401"/>
       <c r="B47" s="26"/>
       <c r="C47" s="25"/>
       <c r="D47" s="25"/>
@@ -4877,7 +4880,7 @@
       <c r="H47" s="21"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="396"/>
+      <c r="A48" s="401"/>
       <c r="B48" s="26"/>
       <c r="C48" s="25"/>
       <c r="D48" s="25"/>
@@ -4890,7 +4893,7 @@
       <c r="H48" s="21"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="396"/>
+      <c r="A49" s="401"/>
       <c r="B49" s="26"/>
       <c r="C49" s="25"/>
       <c r="D49" s="25"/>
@@ -4903,7 +4906,7 @@
       <c r="H49" s="21"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="396"/>
+      <c r="A50" s="401"/>
       <c r="B50" s="26"/>
       <c r="C50" s="25"/>
       <c r="D50" s="25"/>
@@ -4916,7 +4919,7 @@
       <c r="H50" s="21"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="396"/>
+      <c r="A51" s="401"/>
       <c r="B51" s="26"/>
       <c r="C51" s="25"/>
       <c r="D51" s="25"/>
@@ -4929,7 +4932,7 @@
       <c r="H51" s="21"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="396"/>
+      <c r="A52" s="401"/>
       <c r="B52" s="26"/>
       <c r="C52" s="25"/>
       <c r="D52" s="25"/>
@@ -4942,7 +4945,7 @@
       <c r="H52" s="21"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="396"/>
+      <c r="A53" s="401"/>
       <c r="B53" s="26"/>
       <c r="C53" s="25"/>
       <c r="D53" s="25"/>
@@ -4955,7 +4958,7 @@
       <c r="H53" s="21"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="396"/>
+      <c r="A54" s="401"/>
       <c r="B54" s="26"/>
       <c r="C54" s="25"/>
       <c r="D54" s="25"/>
@@ -4968,7 +4971,7 @@
       <c r="H54" s="21"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="396"/>
+      <c r="A55" s="401"/>
       <c r="B55" s="26"/>
       <c r="C55" s="25"/>
       <c r="D55" s="25"/>
@@ -4980,7 +4983,7 @@
       <c r="G55" s="2"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="396"/>
+      <c r="A56" s="401"/>
       <c r="B56" s="26"/>
       <c r="C56" s="25"/>
       <c r="D56" s="25"/>
@@ -4992,7 +4995,7 @@
       <c r="G56" s="2"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="396"/>
+      <c r="A57" s="401"/>
       <c r="B57" s="26"/>
       <c r="C57" s="25"/>
       <c r="D57" s="25"/>
@@ -5004,7 +5007,7 @@
       <c r="G57" s="2"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="396"/>
+      <c r="A58" s="401"/>
       <c r="B58" s="26"/>
       <c r="C58" s="25"/>
       <c r="D58" s="25"/>
@@ -5016,7 +5019,7 @@
       <c r="G58" s="2"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="396"/>
+      <c r="A59" s="401"/>
       <c r="B59" s="26"/>
       <c r="C59" s="25"/>
       <c r="D59" s="25"/>
@@ -5028,7 +5031,7 @@
       <c r="G59" s="2"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="396"/>
+      <c r="A60" s="401"/>
       <c r="B60" s="26"/>
       <c r="C60" s="25"/>
       <c r="D60" s="25"/>
@@ -5040,7 +5043,7 @@
       <c r="G60" s="2"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="396"/>
+      <c r="A61" s="401"/>
       <c r="B61" s="26"/>
       <c r="C61" s="25"/>
       <c r="D61" s="25"/>
@@ -5052,7 +5055,7 @@
       <c r="G61" s="2"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="396"/>
+      <c r="A62" s="401"/>
       <c r="B62" s="26"/>
       <c r="C62" s="25"/>
       <c r="D62" s="25"/>
@@ -5064,7 +5067,7 @@
       <c r="G62" s="2"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="396"/>
+      <c r="A63" s="401"/>
       <c r="B63" s="26"/>
       <c r="C63" s="25"/>
       <c r="D63" s="25"/>
@@ -5076,7 +5079,7 @@
       <c r="G63" s="2"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="396"/>
+      <c r="A64" s="401"/>
       <c r="B64" s="26"/>
       <c r="C64" s="25"/>
       <c r="D64" s="25"/>
@@ -5088,7 +5091,7 @@
       <c r="G64" s="2"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="396"/>
+      <c r="A65" s="401"/>
       <c r="B65" s="26"/>
       <c r="C65" s="25"/>
       <c r="D65" s="25"/>
@@ -5100,7 +5103,7 @@
       <c r="G65" s="2"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="396"/>
+      <c r="A66" s="401"/>
       <c r="B66" s="26"/>
       <c r="C66" s="25"/>
       <c r="D66" s="25"/>
@@ -5112,7 +5115,7 @@
       <c r="G66" s="2"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="396"/>
+      <c r="A67" s="401"/>
       <c r="B67" s="26"/>
       <c r="C67" s="25"/>
       <c r="D67" s="25"/>
@@ -5124,7 +5127,7 @@
       <c r="G67" s="2"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="396"/>
+      <c r="A68" s="401"/>
       <c r="B68" s="26"/>
       <c r="C68" s="25"/>
       <c r="D68" s="25"/>
@@ -5136,7 +5139,7 @@
       <c r="G68" s="2"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="396"/>
+      <c r="A69" s="401"/>
       <c r="B69" s="26"/>
       <c r="C69" s="25"/>
       <c r="D69" s="25"/>
@@ -5148,7 +5151,7 @@
       <c r="G69" s="2"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="396"/>
+      <c r="A70" s="401"/>
       <c r="B70" s="26"/>
       <c r="C70" s="25"/>
       <c r="D70" s="25"/>
@@ -5160,7 +5163,7 @@
       <c r="G70" s="2"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="396"/>
+      <c r="A71" s="401"/>
       <c r="B71" s="26"/>
       <c r="C71" s="25"/>
       <c r="D71" s="25"/>
@@ -5172,7 +5175,7 @@
       <c r="G71" s="2"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="396"/>
+      <c r="A72" s="401"/>
       <c r="B72" s="26"/>
       <c r="C72" s="25"/>
       <c r="D72" s="25"/>
@@ -5184,7 +5187,7 @@
       <c r="G72" s="2"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="396"/>
+      <c r="A73" s="401"/>
       <c r="B73" s="26"/>
       <c r="C73" s="25"/>
       <c r="D73" s="25"/>
@@ -5196,7 +5199,7 @@
       <c r="G73" s="2"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="396"/>
+      <c r="A74" s="401"/>
       <c r="B74" s="26"/>
       <c r="C74" s="25"/>
       <c r="D74" s="25"/>
@@ -5208,7 +5211,7 @@
       <c r="G74" s="2"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="396"/>
+      <c r="A75" s="401"/>
       <c r="B75" s="26"/>
       <c r="C75" s="25"/>
       <c r="D75" s="25"/>
@@ -5220,7 +5223,7 @@
       <c r="G75" s="2"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="396"/>
+      <c r="A76" s="401"/>
       <c r="B76" s="26"/>
       <c r="C76" s="25"/>
       <c r="D76" s="25"/>
@@ -5232,7 +5235,7 @@
       <c r="G76" s="2"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="396"/>
+      <c r="A77" s="401"/>
       <c r="B77" s="26"/>
       <c r="C77" s="25"/>
       <c r="D77" s="25"/>
@@ -5244,7 +5247,7 @@
       <c r="G77" s="2"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="396"/>
+      <c r="A78" s="401"/>
       <c r="B78" s="26"/>
       <c r="C78" s="25"/>
       <c r="D78" s="25"/>
@@ -5256,7 +5259,7 @@
       <c r="G78" s="2"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="396"/>
+      <c r="A79" s="401"/>
       <c r="B79" s="26"/>
       <c r="C79" s="25"/>
       <c r="D79" s="25"/>
@@ -5268,7 +5271,7 @@
       <c r="G79" s="2"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="396"/>
+      <c r="A80" s="401"/>
       <c r="B80" s="26"/>
       <c r="C80" s="25"/>
       <c r="D80" s="25"/>
@@ -5280,7 +5283,7 @@
       <c r="G80" s="2"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="396"/>
+      <c r="A81" s="401"/>
       <c r="B81" s="26"/>
       <c r="C81" s="25"/>
       <c r="D81" s="25"/>
@@ -5292,7 +5295,7 @@
       <c r="G81" s="2"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="396"/>
+      <c r="A82" s="401"/>
       <c r="B82" s="26"/>
       <c r="C82" s="25"/>
       <c r="D82" s="25"/>
@@ -5304,7 +5307,7 @@
       <c r="G82" s="2"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="396"/>
+      <c r="A83" s="401"/>
       <c r="B83" s="31"/>
       <c r="C83" s="27">
         <f>SUM(C5:C72)</f>
@@ -5361,33 +5364,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="20.25" customHeight="1">
-      <c r="A1" s="395"/>
-      <c r="B1" s="395"/>
-      <c r="C1" s="395"/>
-      <c r="D1" s="395"/>
-      <c r="E1" s="395"/>
-      <c r="F1" s="395"/>
+      <c r="A1" s="400"/>
+      <c r="B1" s="400"/>
+      <c r="C1" s="400"/>
+      <c r="D1" s="400"/>
+      <c r="E1" s="400"/>
+      <c r="F1" s="400"/>
     </row>
     <row r="2" spans="1:9" ht="20.25">
-      <c r="A2" s="396"/>
-      <c r="B2" s="393" t="s">
+      <c r="A2" s="401"/>
+      <c r="B2" s="398" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="393"/>
-      <c r="D2" s="393"/>
-      <c r="E2" s="393"/>
+      <c r="C2" s="398"/>
+      <c r="D2" s="398"/>
+      <c r="E2" s="398"/>
     </row>
     <row r="3" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A3" s="396"/>
-      <c r="B3" s="394" t="s">
+      <c r="A3" s="401"/>
+      <c r="B3" s="399" t="s">
         <v>232</v>
       </c>
-      <c r="C3" s="394"/>
-      <c r="D3" s="394"/>
-      <c r="E3" s="394"/>
+      <c r="C3" s="399"/>
+      <c r="D3" s="399"/>
+      <c r="E3" s="399"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A4" s="396"/>
+      <c r="A4" s="401"/>
       <c r="B4" s="22" t="s">
         <v>0</v>
       </c>
@@ -5405,7 +5408,7 @@
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="396"/>
+      <c r="A5" s="401"/>
       <c r="B5" s="24" t="s">
         <v>3</v>
       </c>
@@ -5423,7 +5426,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="396"/>
+      <c r="A6" s="401"/>
       <c r="B6" s="26"/>
       <c r="C6" s="243"/>
       <c r="D6" s="243"/>
@@ -5435,7 +5438,7 @@
       <c r="G6" s="19"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="396"/>
+      <c r="A7" s="401"/>
       <c r="B7" s="26" t="s">
         <v>239</v>
       </c>
@@ -5455,7 +5458,7 @@
       <c r="I7" s="21"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="396"/>
+      <c r="A8" s="401"/>
       <c r="B8" s="26" t="s">
         <v>243</v>
       </c>
@@ -5475,7 +5478,7 @@
       <c r="I8" s="21"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="396"/>
+      <c r="A9" s="401"/>
       <c r="B9" s="26" t="s">
         <v>249</v>
       </c>
@@ -5495,7 +5498,7 @@
       <c r="I9" s="21"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="396"/>
+      <c r="A10" s="401"/>
       <c r="B10" s="26" t="s">
         <v>254</v>
       </c>
@@ -5515,7 +5518,7 @@
       <c r="I10" s="21"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="396"/>
+      <c r="A11" s="401"/>
       <c r="B11" s="26" t="s">
         <v>258</v>
       </c>
@@ -5535,7 +5538,7 @@
       <c r="I11" s="21"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="396"/>
+      <c r="A12" s="401"/>
       <c r="B12" s="26" t="s">
         <v>260</v>
       </c>
@@ -5555,7 +5558,7 @@
       <c r="I12" s="21"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="396"/>
+      <c r="A13" s="401"/>
       <c r="B13" s="375" t="s">
         <v>262</v>
       </c>
@@ -5577,7 +5580,7 @@
       <c r="I13" s="21"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="396"/>
+      <c r="A14" s="401"/>
       <c r="B14" s="26" t="s">
         <v>267</v>
       </c>
@@ -5597,7 +5600,7 @@
       <c r="I14" s="21"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="396"/>
+      <c r="A15" s="401"/>
       <c r="B15" s="26" t="s">
         <v>271</v>
       </c>
@@ -5617,7 +5620,7 @@
       <c r="I15" s="21"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="396"/>
+      <c r="A16" s="401"/>
       <c r="B16" s="26" t="s">
         <v>272</v>
       </c>
@@ -5637,7 +5640,7 @@
       <c r="I16" s="21"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="396"/>
+      <c r="A17" s="401"/>
       <c r="B17" s="26" t="s">
         <v>274</v>
       </c>
@@ -5657,7 +5660,7 @@
       <c r="I17" s="21"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="396"/>
+      <c r="A18" s="401"/>
       <c r="B18" s="26" t="s">
         <v>278</v>
       </c>
@@ -5677,7 +5680,7 @@
       <c r="I18" s="21"/>
     </row>
     <row r="19" spans="1:9" ht="12.75" customHeight="1">
-      <c r="A19" s="396"/>
+      <c r="A19" s="401"/>
       <c r="B19" s="26" t="s">
         <v>280</v>
       </c>
@@ -5697,7 +5700,7 @@
       <c r="I19" s="21"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="396"/>
+      <c r="A20" s="401"/>
       <c r="B20" s="26" t="s">
         <v>290</v>
       </c>
@@ -5717,7 +5720,7 @@
       <c r="I20" s="21"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="396"/>
+      <c r="A21" s="401"/>
       <c r="B21" s="375" t="s">
         <v>294</v>
       </c>
@@ -5739,7 +5742,7 @@
       <c r="I21" s="21"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="396"/>
+      <c r="A22" s="401"/>
       <c r="B22" s="26" t="s">
         <v>294</v>
       </c>
@@ -5759,7 +5762,7 @@
       <c r="I22" s="21"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="396"/>
+      <c r="A23" s="401"/>
       <c r="B23" s="26"/>
       <c r="C23" s="243"/>
       <c r="D23" s="243"/>
@@ -5773,7 +5776,7 @@
       <c r="I23" s="21"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="396"/>
+      <c r="A24" s="401"/>
       <c r="B24" s="26"/>
       <c r="C24" s="243"/>
       <c r="D24" s="243"/>
@@ -5787,7 +5790,7 @@
       <c r="I24" s="21"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="396"/>
+      <c r="A25" s="401"/>
       <c r="B25" s="26"/>
       <c r="C25" s="243"/>
       <c r="D25" s="243"/>
@@ -5801,7 +5804,7 @@
       <c r="I25" s="21"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="396"/>
+      <c r="A26" s="401"/>
       <c r="B26" s="26"/>
       <c r="C26" s="243"/>
       <c r="D26" s="243"/>
@@ -5815,7 +5818,7 @@
       <c r="I26" s="21"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="396"/>
+      <c r="A27" s="401"/>
       <c r="B27" s="26"/>
       <c r="C27" s="243"/>
       <c r="D27" s="243"/>
@@ -5829,7 +5832,7 @@
       <c r="I27" s="21"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="396"/>
+      <c r="A28" s="401"/>
       <c r="B28" s="26"/>
       <c r="C28" s="243"/>
       <c r="D28" s="243"/>
@@ -5843,7 +5846,7 @@
       <c r="I28" s="21"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="396"/>
+      <c r="A29" s="401"/>
       <c r="B29" s="26"/>
       <c r="C29" s="243"/>
       <c r="D29" s="243"/>
@@ -5857,7 +5860,7 @@
       <c r="I29" s="21"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="396"/>
+      <c r="A30" s="401"/>
       <c r="B30" s="26"/>
       <c r="C30" s="243"/>
       <c r="D30" s="243"/>
@@ -5871,7 +5874,7 @@
       <c r="I30" s="21"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="396"/>
+      <c r="A31" s="401"/>
       <c r="B31" s="26"/>
       <c r="C31" s="243"/>
       <c r="D31" s="243"/>
@@ -5885,7 +5888,7 @@
       <c r="I31" s="21"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="396"/>
+      <c r="A32" s="401"/>
       <c r="B32" s="26"/>
       <c r="C32" s="243"/>
       <c r="D32" s="243"/>
@@ -5899,7 +5902,7 @@
       <c r="I32" s="21"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="396"/>
+      <c r="A33" s="401"/>
       <c r="B33" s="26"/>
       <c r="C33" s="243"/>
       <c r="D33" s="245"/>
@@ -5913,7 +5916,7 @@
       <c r="I33" s="21"/>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="396"/>
+      <c r="A34" s="401"/>
       <c r="B34" s="26"/>
       <c r="C34" s="243"/>
       <c r="D34" s="243"/>
@@ -5927,7 +5930,7 @@
       <c r="I34" s="21"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="396"/>
+      <c r="A35" s="401"/>
       <c r="B35" s="26"/>
       <c r="C35" s="243"/>
       <c r="D35" s="243"/>
@@ -5941,7 +5944,7 @@
       <c r="I35" s="21"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="396"/>
+      <c r="A36" s="401"/>
       <c r="B36" s="26"/>
       <c r="C36" s="243"/>
       <c r="D36" s="243"/>
@@ -5955,7 +5958,7 @@
       <c r="I36" s="21"/>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="396"/>
+      <c r="A37" s="401"/>
       <c r="B37" s="26"/>
       <c r="C37" s="243"/>
       <c r="D37" s="243"/>
@@ -5969,7 +5972,7 @@
       <c r="I37" s="21"/>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="396"/>
+      <c r="A38" s="401"/>
       <c r="B38" s="26"/>
       <c r="C38" s="243"/>
       <c r="D38" s="243"/>
@@ -5983,7 +5986,7 @@
       <c r="I38" s="21"/>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="396"/>
+      <c r="A39" s="401"/>
       <c r="B39" s="26"/>
       <c r="C39" s="243"/>
       <c r="D39" s="243"/>
@@ -5997,7 +6000,7 @@
       <c r="I39" s="21"/>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="396"/>
+      <c r="A40" s="401"/>
       <c r="B40" s="26"/>
       <c r="C40" s="243"/>
       <c r="D40" s="243"/>
@@ -6011,7 +6014,7 @@
       <c r="I40" s="21"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="396"/>
+      <c r="A41" s="401"/>
       <c r="B41" s="26"/>
       <c r="C41" s="243"/>
       <c r="D41" s="243"/>
@@ -6025,7 +6028,7 @@
       <c r="I41" s="21"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="396"/>
+      <c r="A42" s="401"/>
       <c r="B42" s="26"/>
       <c r="C42" s="243"/>
       <c r="D42" s="243"/>
@@ -6039,7 +6042,7 @@
       <c r="I42" s="21"/>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="396"/>
+      <c r="A43" s="401"/>
       <c r="B43" s="26"/>
       <c r="C43" s="243"/>
       <c r="D43" s="243"/>
@@ -6053,7 +6056,7 @@
       <c r="I43" s="21"/>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="396"/>
+      <c r="A44" s="401"/>
       <c r="B44" s="26"/>
       <c r="C44" s="243"/>
       <c r="D44" s="243"/>
@@ -6067,7 +6070,7 @@
       <c r="I44" s="21"/>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="396"/>
+      <c r="A45" s="401"/>
       <c r="B45" s="26"/>
       <c r="C45" s="243"/>
       <c r="D45" s="243"/>
@@ -6081,7 +6084,7 @@
       <c r="I45" s="21"/>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="396"/>
+      <c r="A46" s="401"/>
       <c r="B46" s="26"/>
       <c r="C46" s="243"/>
       <c r="D46" s="243"/>
@@ -6095,7 +6098,7 @@
       <c r="I46" s="21"/>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="396"/>
+      <c r="A47" s="401"/>
       <c r="B47" s="26"/>
       <c r="C47" s="243"/>
       <c r="D47" s="243"/>
@@ -6109,7 +6112,7 @@
       <c r="I47" s="21"/>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="396"/>
+      <c r="A48" s="401"/>
       <c r="B48" s="26"/>
       <c r="C48" s="243"/>
       <c r="D48" s="243"/>
@@ -6123,7 +6126,7 @@
       <c r="I48" s="21"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="396"/>
+      <c r="A49" s="401"/>
       <c r="B49" s="26"/>
       <c r="C49" s="243"/>
       <c r="D49" s="243"/>
@@ -6137,7 +6140,7 @@
       <c r="I49" s="21"/>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="396"/>
+      <c r="A50" s="401"/>
       <c r="B50" s="26"/>
       <c r="C50" s="243"/>
       <c r="D50" s="243"/>
@@ -6151,7 +6154,7 @@
       <c r="I50" s="21"/>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="396"/>
+      <c r="A51" s="401"/>
       <c r="B51" s="26"/>
       <c r="C51" s="243"/>
       <c r="D51" s="243"/>
@@ -6165,7 +6168,7 @@
       <c r="I51" s="21"/>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="396"/>
+      <c r="A52" s="401"/>
       <c r="B52" s="26"/>
       <c r="C52" s="243"/>
       <c r="D52" s="243"/>
@@ -6179,7 +6182,7 @@
       <c r="I52" s="21"/>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="396"/>
+      <c r="A53" s="401"/>
       <c r="B53" s="26"/>
       <c r="C53" s="243"/>
       <c r="D53" s="243"/>
@@ -6193,7 +6196,7 @@
       <c r="I53" s="21"/>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="396"/>
+      <c r="A54" s="401"/>
       <c r="B54" s="26"/>
       <c r="C54" s="243"/>
       <c r="D54" s="243"/>
@@ -6207,7 +6210,7 @@
       <c r="I54" s="21"/>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="396"/>
+      <c r="A55" s="401"/>
       <c r="B55" s="26"/>
       <c r="C55" s="243"/>
       <c r="D55" s="243"/>
@@ -6221,7 +6224,7 @@
       <c r="I55" s="21"/>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="396"/>
+      <c r="A56" s="401"/>
       <c r="B56" s="26"/>
       <c r="C56" s="243"/>
       <c r="D56" s="243"/>
@@ -6235,7 +6238,7 @@
       <c r="I56" s="21"/>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="396"/>
+      <c r="A57" s="401"/>
       <c r="B57" s="26"/>
       <c r="C57" s="243"/>
       <c r="D57" s="243"/>
@@ -6246,7 +6249,7 @@
       <c r="F57" s="2"/>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="396"/>
+      <c r="A58" s="401"/>
       <c r="B58" s="26"/>
       <c r="C58" s="243"/>
       <c r="D58" s="243"/>
@@ -6257,7 +6260,7 @@
       <c r="F58" s="2"/>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="396"/>
+      <c r="A59" s="401"/>
       <c r="B59" s="26"/>
       <c r="C59" s="243"/>
       <c r="D59" s="243"/>
@@ -6268,7 +6271,7 @@
       <c r="F59" s="2"/>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="396"/>
+      <c r="A60" s="401"/>
       <c r="B60" s="26"/>
       <c r="C60" s="243"/>
       <c r="D60" s="243"/>
@@ -6279,7 +6282,7 @@
       <c r="F60" s="2"/>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="396"/>
+      <c r="A61" s="401"/>
       <c r="B61" s="26"/>
       <c r="C61" s="243"/>
       <c r="D61" s="243"/>
@@ -6290,7 +6293,7 @@
       <c r="F61" s="2"/>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="396"/>
+      <c r="A62" s="401"/>
       <c r="B62" s="26"/>
       <c r="C62" s="243"/>
       <c r="D62" s="243"/>
@@ -6301,7 +6304,7 @@
       <c r="F62" s="2"/>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="396"/>
+      <c r="A63" s="401"/>
       <c r="B63" s="26"/>
       <c r="C63" s="243"/>
       <c r="D63" s="243"/>
@@ -6312,7 +6315,7 @@
       <c r="F63" s="2"/>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="396"/>
+      <c r="A64" s="401"/>
       <c r="B64" s="26"/>
       <c r="C64" s="243"/>
       <c r="D64" s="243"/>
@@ -6323,7 +6326,7 @@
       <c r="F64" s="2"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="396"/>
+      <c r="A65" s="401"/>
       <c r="B65" s="26"/>
       <c r="C65" s="243"/>
       <c r="D65" s="243"/>
@@ -6334,7 +6337,7 @@
       <c r="F65" s="2"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="396"/>
+      <c r="A66" s="401"/>
       <c r="B66" s="26"/>
       <c r="C66" s="243"/>
       <c r="D66" s="243"/>
@@ -6345,7 +6348,7 @@
       <c r="F66" s="2"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="396"/>
+      <c r="A67" s="401"/>
       <c r="B67" s="26"/>
       <c r="C67" s="243"/>
       <c r="D67" s="243"/>
@@ -6356,7 +6359,7 @@
       <c r="F67" s="2"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="396"/>
+      <c r="A68" s="401"/>
       <c r="B68" s="26"/>
       <c r="C68" s="243"/>
       <c r="D68" s="243"/>
@@ -6367,7 +6370,7 @@
       <c r="F68" s="2"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="396"/>
+      <c r="A69" s="401"/>
       <c r="B69" s="26"/>
       <c r="C69" s="243"/>
       <c r="D69" s="243"/>
@@ -6378,7 +6381,7 @@
       <c r="F69" s="2"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="396"/>
+      <c r="A70" s="401"/>
       <c r="B70" s="26"/>
       <c r="C70" s="243"/>
       <c r="D70" s="243"/>
@@ -6389,7 +6392,7 @@
       <c r="F70" s="2"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="396"/>
+      <c r="A71" s="401"/>
       <c r="B71" s="26"/>
       <c r="C71" s="243"/>
       <c r="D71" s="243"/>
@@ -6400,7 +6403,7 @@
       <c r="F71" s="2"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="396"/>
+      <c r="A72" s="401"/>
       <c r="B72" s="26"/>
       <c r="C72" s="243"/>
       <c r="D72" s="243"/>
@@ -6411,7 +6414,7 @@
       <c r="F72" s="2"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="396"/>
+      <c r="A73" s="401"/>
       <c r="B73" s="26"/>
       <c r="C73" s="243"/>
       <c r="D73" s="243"/>
@@ -6422,7 +6425,7 @@
       <c r="F73" s="2"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="396"/>
+      <c r="A74" s="401"/>
       <c r="B74" s="26"/>
       <c r="C74" s="243"/>
       <c r="D74" s="243"/>
@@ -6433,7 +6436,7 @@
       <c r="F74" s="2"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="396"/>
+      <c r="A75" s="401"/>
       <c r="B75" s="26"/>
       <c r="C75" s="243"/>
       <c r="D75" s="243"/>
@@ -6444,7 +6447,7 @@
       <c r="F75" s="2"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="396"/>
+      <c r="A76" s="401"/>
       <c r="B76" s="26"/>
       <c r="C76" s="243"/>
       <c r="D76" s="243"/>
@@ -6455,7 +6458,7 @@
       <c r="F76" s="2"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="396"/>
+      <c r="A77" s="401"/>
       <c r="B77" s="26"/>
       <c r="C77" s="243"/>
       <c r="D77" s="243"/>
@@ -6466,7 +6469,7 @@
       <c r="F77" s="2"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="396"/>
+      <c r="A78" s="401"/>
       <c r="B78" s="26"/>
       <c r="C78" s="243"/>
       <c r="D78" s="243"/>
@@ -6477,7 +6480,7 @@
       <c r="F78" s="2"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="396"/>
+      <c r="A79" s="401"/>
       <c r="B79" s="26"/>
       <c r="C79" s="243"/>
       <c r="D79" s="243"/>
@@ -6489,7 +6492,7 @@
       <c r="G79" s="2"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="396"/>
+      <c r="A80" s="401"/>
       <c r="B80" s="26"/>
       <c r="C80" s="243"/>
       <c r="D80" s="243"/>
@@ -6501,7 +6504,7 @@
       <c r="G80" s="2"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="396"/>
+      <c r="A81" s="401"/>
       <c r="B81" s="26"/>
       <c r="C81" s="243"/>
       <c r="D81" s="243"/>
@@ -6513,7 +6516,7 @@
       <c r="G81" s="2"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="396"/>
+      <c r="A82" s="401"/>
       <c r="B82" s="26"/>
       <c r="C82" s="243"/>
       <c r="D82" s="243"/>
@@ -6525,7 +6528,7 @@
       <c r="G82" s="2"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="396"/>
+      <c r="A83" s="401"/>
       <c r="B83" s="31"/>
       <c r="C83" s="244">
         <f>SUM(C5:C72)</f>
@@ -6581,67 +6584,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25">
-      <c r="A1" s="401" t="s">
+      <c r="A1" s="406" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="401"/>
-      <c r="C1" s="401"/>
-      <c r="D1" s="401"/>
-      <c r="E1" s="401"/>
-      <c r="F1" s="401"/>
-      <c r="G1" s="401"/>
-      <c r="H1" s="401"/>
-      <c r="I1" s="401"/>
-      <c r="J1" s="401"/>
-      <c r="K1" s="401"/>
-      <c r="L1" s="401"/>
-      <c r="M1" s="401"/>
-      <c r="N1" s="401"/>
-      <c r="O1" s="401"/>
-      <c r="P1" s="401"/>
-      <c r="Q1" s="401"/>
+      <c r="B1" s="406"/>
+      <c r="C1" s="406"/>
+      <c r="D1" s="406"/>
+      <c r="E1" s="406"/>
+      <c r="F1" s="406"/>
+      <c r="G1" s="406"/>
+      <c r="H1" s="406"/>
+      <c r="I1" s="406"/>
+      <c r="J1" s="406"/>
+      <c r="K1" s="406"/>
+      <c r="L1" s="406"/>
+      <c r="M1" s="406"/>
+      <c r="N1" s="406"/>
+      <c r="O1" s="406"/>
+      <c r="P1" s="406"/>
+      <c r="Q1" s="406"/>
     </row>
     <row r="2" spans="1:24" s="62" customFormat="1" ht="18">
-      <c r="A2" s="402" t="s">
+      <c r="A2" s="407" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="402"/>
-      <c r="C2" s="402"/>
-      <c r="D2" s="402"/>
-      <c r="E2" s="402"/>
-      <c r="F2" s="402"/>
-      <c r="G2" s="402"/>
-      <c r="H2" s="402"/>
-      <c r="I2" s="402"/>
-      <c r="J2" s="402"/>
-      <c r="K2" s="402"/>
-      <c r="L2" s="402"/>
-      <c r="M2" s="402"/>
-      <c r="N2" s="402"/>
-      <c r="O2" s="402"/>
-      <c r="P2" s="402"/>
-      <c r="Q2" s="402"/>
+      <c r="B2" s="407"/>
+      <c r="C2" s="407"/>
+      <c r="D2" s="407"/>
+      <c r="E2" s="407"/>
+      <c r="F2" s="407"/>
+      <c r="G2" s="407"/>
+      <c r="H2" s="407"/>
+      <c r="I2" s="407"/>
+      <c r="J2" s="407"/>
+      <c r="K2" s="407"/>
+      <c r="L2" s="407"/>
+      <c r="M2" s="407"/>
+      <c r="N2" s="407"/>
+      <c r="O2" s="407"/>
+      <c r="P2" s="407"/>
+      <c r="Q2" s="407"/>
     </row>
     <row r="3" spans="1:24" s="63" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="403" t="s">
+      <c r="A3" s="408" t="s">
         <v>234</v>
       </c>
-      <c r="B3" s="404"/>
-      <c r="C3" s="404"/>
-      <c r="D3" s="404"/>
-      <c r="E3" s="404"/>
-      <c r="F3" s="404"/>
-      <c r="G3" s="404"/>
-      <c r="H3" s="404"/>
-      <c r="I3" s="404"/>
-      <c r="J3" s="404"/>
-      <c r="K3" s="404"/>
-      <c r="L3" s="404"/>
-      <c r="M3" s="404"/>
-      <c r="N3" s="404"/>
-      <c r="O3" s="404"/>
-      <c r="P3" s="404"/>
-      <c r="Q3" s="405"/>
+      <c r="B3" s="409"/>
+      <c r="C3" s="409"/>
+      <c r="D3" s="409"/>
+      <c r="E3" s="409"/>
+      <c r="F3" s="409"/>
+      <c r="G3" s="409"/>
+      <c r="H3" s="409"/>
+      <c r="I3" s="409"/>
+      <c r="J3" s="409"/>
+      <c r="K3" s="409"/>
+      <c r="L3" s="409"/>
+      <c r="M3" s="409"/>
+      <c r="N3" s="409"/>
+      <c r="O3" s="409"/>
+      <c r="P3" s="409"/>
+      <c r="Q3" s="410"/>
       <c r="S3" s="47"/>
       <c r="T3" s="7"/>
       <c r="U3" s="7"/>
@@ -6650,52 +6653,52 @@
       <c r="X3" s="16"/>
     </row>
     <row r="4" spans="1:24" s="64" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A4" s="406" t="s">
+      <c r="A4" s="411" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="408" t="s">
+      <c r="B4" s="413" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="397" t="s">
+      <c r="C4" s="402" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="397" t="s">
+      <c r="D4" s="402" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="397" t="s">
+      <c r="E4" s="402" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="410" t="s">
+      <c r="F4" s="415" t="s">
         <v>134</v>
       </c>
-      <c r="G4" s="397" t="s">
+      <c r="G4" s="402" t="s">
         <v>33</v>
       </c>
-      <c r="H4" s="397" t="s">
+      <c r="H4" s="402" t="s">
         <v>273</v>
       </c>
-      <c r="I4" s="397" t="s">
+      <c r="I4" s="402" t="s">
         <v>245</v>
       </c>
-      <c r="J4" s="397" t="s">
+      <c r="J4" s="402" t="s">
         <v>34</v>
       </c>
-      <c r="K4" s="397" t="s">
+      <c r="K4" s="402" t="s">
         <v>35</v>
       </c>
-      <c r="L4" s="397" t="s">
+      <c r="L4" s="402" t="s">
         <v>281</v>
       </c>
-      <c r="M4" s="397" t="s">
+      <c r="M4" s="402" t="s">
         <v>279</v>
       </c>
-      <c r="N4" s="397" t="s">
+      <c r="N4" s="402" t="s">
         <v>36</v>
       </c>
-      <c r="O4" s="399" t="s">
+      <c r="O4" s="404" t="s">
         <v>37</v>
       </c>
-      <c r="P4" s="412" t="s">
+      <c r="P4" s="417" t="s">
         <v>142</v>
       </c>
       <c r="Q4" s="121" t="s">
@@ -6708,22 +6711,22 @@
       <c r="W4" s="66"/>
     </row>
     <row r="5" spans="1:24" s="64" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="407"/>
-      <c r="B5" s="409"/>
-      <c r="C5" s="398"/>
-      <c r="D5" s="398"/>
-      <c r="E5" s="398"/>
-      <c r="F5" s="411"/>
-      <c r="G5" s="398"/>
-      <c r="H5" s="398"/>
-      <c r="I5" s="398"/>
-      <c r="J5" s="398"/>
-      <c r="K5" s="398"/>
-      <c r="L5" s="398"/>
-      <c r="M5" s="398"/>
-      <c r="N5" s="398"/>
-      <c r="O5" s="400"/>
-      <c r="P5" s="413"/>
+      <c r="A5" s="412"/>
+      <c r="B5" s="414"/>
+      <c r="C5" s="403"/>
+      <c r="D5" s="403"/>
+      <c r="E5" s="403"/>
+      <c r="F5" s="416"/>
+      <c r="G5" s="403"/>
+      <c r="H5" s="403"/>
+      <c r="I5" s="403"/>
+      <c r="J5" s="403"/>
+      <c r="K5" s="403"/>
+      <c r="L5" s="403"/>
+      <c r="M5" s="403"/>
+      <c r="N5" s="403"/>
+      <c r="O5" s="405"/>
+      <c r="P5" s="418"/>
       <c r="Q5" s="122" t="s">
         <v>38</v>
       </c>
@@ -9779,11 +9782,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="A1:Q1"/>
@@ -9798,6 +9796,11 @@
     <mergeCell ref="P4:P5"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -9810,8 +9813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CS1357"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G76" sqref="G76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -9838,15 +9841,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:97" ht="19.5">
-      <c r="A1" s="419" t="s">
+      <c r="A1" s="424" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="419"/>
-      <c r="C1" s="419"/>
-      <c r="D1" s="419"/>
-      <c r="E1" s="419"/>
-      <c r="F1" s="419"/>
-      <c r="G1" s="419"/>
+      <c r="B1" s="424"/>
+      <c r="C1" s="424"/>
+      <c r="D1" s="424"/>
+      <c r="E1" s="424"/>
+      <c r="F1" s="424"/>
+      <c r="G1" s="424"/>
       <c r="H1" s="57"/>
       <c r="I1" s="138"/>
       <c r="J1" s="138"/>
@@ -9939,15 +9942,15 @@
       <c r="CS1" s="133"/>
     </row>
     <row r="2" spans="1:97" ht="15" customHeight="1">
-      <c r="A2" s="420" t="s">
+      <c r="A2" s="425" t="s">
         <v>235</v>
       </c>
-      <c r="B2" s="420"/>
-      <c r="C2" s="420"/>
-      <c r="D2" s="420"/>
-      <c r="E2" s="420"/>
-      <c r="F2" s="420"/>
-      <c r="G2" s="420"/>
+      <c r="B2" s="425"/>
+      <c r="C2" s="425"/>
+      <c r="D2" s="425"/>
+      <c r="E2" s="425"/>
+      <c r="F2" s="425"/>
+      <c r="G2" s="425"/>
       <c r="H2" s="57"/>
       <c r="I2" s="138"/>
       <c r="J2" s="138"/>
@@ -10040,15 +10043,15 @@
       <c r="CS2" s="133"/>
     </row>
     <row r="3" spans="1:97">
-      <c r="A3" s="421" t="s">
+      <c r="A3" s="426" t="s">
         <v>64</v>
       </c>
-      <c r="B3" s="421"/>
-      <c r="C3" s="421"/>
-      <c r="D3" s="421"/>
-      <c r="E3" s="421"/>
-      <c r="F3" s="421"/>
-      <c r="G3" s="421"/>
+      <c r="B3" s="426"/>
+      <c r="C3" s="426"/>
+      <c r="D3" s="426"/>
+      <c r="E3" s="426"/>
+      <c r="F3" s="426"/>
+      <c r="G3" s="426"/>
       <c r="H3" s="57"/>
       <c r="I3" s="138"/>
       <c r="J3" s="138"/>
@@ -13452,12 +13455,12 @@
     </row>
     <row r="35" spans="1:97" ht="13.5" thickBot="1">
       <c r="A35" s="128"/>
-      <c r="B35" s="416" t="s">
+      <c r="B35" s="421" t="s">
         <v>20</v>
       </c>
-      <c r="C35" s="416"/>
-      <c r="D35" s="416"/>
-      <c r="E35" s="416"/>
+      <c r="C35" s="421"/>
+      <c r="D35" s="421"/>
+      <c r="E35" s="421"/>
       <c r="F35" s="129"/>
       <c r="G35" s="134"/>
       <c r="H35" s="134"/>
@@ -14318,10 +14321,10 @@
       <c r="D43" s="203"/>
       <c r="E43" s="171"/>
       <c r="F43" s="129"/>
-      <c r="G43" s="417"/>
-      <c r="H43" s="417"/>
-      <c r="I43" s="417"/>
-      <c r="J43" s="417"/>
+      <c r="G43" s="422"/>
+      <c r="H43" s="422"/>
+      <c r="I43" s="422"/>
+      <c r="J43" s="422"/>
       <c r="K43" s="57"/>
       <c r="L43" s="138"/>
       <c r="M43" s="57"/>
@@ -15669,7 +15672,7 @@
       <c r="CS54" s="133"/>
     </row>
     <row r="55" spans="1:97">
-      <c r="A55" s="465" t="s">
+      <c r="A55" s="393" t="s">
         <v>94</v>
       </c>
       <c r="B55" s="362" t="s">
@@ -16735,7 +16738,7 @@
       <c r="B64" s="362"/>
       <c r="C64" s="363"/>
       <c r="D64" s="364"/>
-      <c r="E64" s="466"/>
+      <c r="E64" s="394"/>
       <c r="F64" s="127"/>
       <c r="G64" s="133"/>
       <c r="H64" s="170" t="s">
@@ -17646,7 +17649,7 @@
         <v>101</v>
       </c>
       <c r="C72" s="356"/>
-      <c r="D72" s="357">
+      <c r="D72" s="470">
         <v>416860</v>
       </c>
       <c r="E72" s="359" t="s">
@@ -17756,7 +17759,7 @@
         <v>276</v>
       </c>
       <c r="C73" s="356"/>
-      <c r="D73" s="357">
+      <c r="D73" s="470">
         <v>818690</v>
       </c>
       <c r="E73" s="370" t="s">
@@ -17866,7 +17869,7 @@
         <v>120</v>
       </c>
       <c r="C74" s="356"/>
-      <c r="D74" s="357">
+      <c r="D74" s="470">
         <v>895180</v>
       </c>
       <c r="E74" s="359" t="s">
@@ -22485,11 +22488,11 @@
       <c r="CS118" s="133"/>
     </row>
     <row r="119" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A119" s="414" t="s">
+      <c r="A119" s="419" t="s">
         <v>26</v>
       </c>
-      <c r="B119" s="415"/>
-      <c r="C119" s="418"/>
+      <c r="B119" s="420"/>
+      <c r="C119" s="423"/>
       <c r="D119" s="207">
         <f>SUM(D37:D118)</f>
         <v>7058520</v>
@@ -22694,11 +22697,11 @@
       <c r="CS120" s="133"/>
     </row>
     <row r="121" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A121" s="414" t="s">
+      <c r="A121" s="419" t="s">
         <v>27</v>
       </c>
-      <c r="B121" s="415"/>
-      <c r="C121" s="415"/>
+      <c r="B121" s="420"/>
+      <c r="C121" s="420"/>
       <c r="D121" s="207">
         <f>D119+M121</f>
         <v>7058520</v>
@@ -33932,7 +33935,7 @@
   </sheetPr>
   <dimension ref="A1:R221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
@@ -33956,28 +33959,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="26.25">
-      <c r="A1" s="424" t="s">
+      <c r="A1" s="429" t="s">
         <v>127</v>
       </c>
-      <c r="B1" s="425"/>
-      <c r="C1" s="425"/>
-      <c r="D1" s="425"/>
-      <c r="E1" s="426"/>
+      <c r="B1" s="430"/>
+      <c r="C1" s="430"/>
+      <c r="D1" s="430"/>
+      <c r="E1" s="431"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
-      <c r="I1" s="422"/>
-      <c r="J1" s="422"/>
-      <c r="K1" s="422"/>
+      <c r="I1" s="427"/>
+      <c r="J1" s="427"/>
+      <c r="K1" s="427"/>
     </row>
     <row r="2" spans="1:18" ht="20.25">
-      <c r="A2" s="433" t="s">
+      <c r="A2" s="438" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="434"/>
-      <c r="C2" s="434"/>
-      <c r="D2" s="434"/>
-      <c r="E2" s="435"/>
+      <c r="B2" s="439"/>
+      <c r="C2" s="439"/>
+      <c r="D2" s="439"/>
+      <c r="E2" s="440"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
@@ -33986,13 +33989,13 @@
       <c r="K2" s="11"/>
     </row>
     <row r="3" spans="1:18" ht="23.25">
-      <c r="A3" s="427" t="s">
+      <c r="A3" s="432" t="s">
         <v>298</v>
       </c>
-      <c r="B3" s="428"/>
-      <c r="C3" s="428"/>
-      <c r="D3" s="428"/>
-      <c r="E3" s="429"/>
+      <c r="B3" s="433"/>
+      <c r="C3" s="433"/>
+      <c r="D3" s="433"/>
+      <c r="E3" s="434"/>
       <c r="F3" s="5"/>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
@@ -34008,13 +34011,13 @@
       <c r="R3" s="7"/>
     </row>
     <row r="4" spans="1:18" ht="23.25">
-      <c r="A4" s="436" t="s">
+      <c r="A4" s="441" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="437"/>
-      <c r="C4" s="437"/>
-      <c r="D4" s="437"/>
-      <c r="E4" s="438"/>
+      <c r="B4" s="442"/>
+      <c r="C4" s="442"/>
+      <c r="D4" s="442"/>
+      <c r="E4" s="443"/>
       <c r="F4" s="5"/>
       <c r="G4" s="41"/>
       <c r="H4" s="41"/>
@@ -34175,7 +34178,7 @@
       <c r="Q8" s="7"/>
       <c r="R8" s="7"/>
     </row>
-    <row r="9" spans="1:18" ht="21.75">
+    <row r="9" spans="1:18" ht="23.25">
       <c r="A9" s="263" t="s">
         <v>118</v>
       </c>
@@ -34255,7 +34258,7 @@
       <c r="Q10" s="7"/>
       <c r="R10" s="7"/>
     </row>
-    <row r="11" spans="1:18" ht="23.25">
+    <row r="11" spans="1:18" ht="21.75">
       <c r="A11" s="333" t="s">
         <v>8</v>
       </c>
@@ -34315,11 +34318,11 @@
       <c r="F13" s="7"/>
       <c r="G13" s="231"/>
       <c r="H13" s="232"/>
-      <c r="I13" s="423" t="s">
+      <c r="I13" s="428" t="s">
         <v>221</v>
       </c>
-      <c r="J13" s="423"/>
-      <c r="K13" s="423"/>
+      <c r="J13" s="428"/>
+      <c r="K13" s="428"/>
       <c r="L13" s="290">
         <f>SUM(L5:L12)</f>
         <v>183900</v>
@@ -34344,11 +34347,11 @@
       <c r="F14" s="7"/>
       <c r="G14" s="299"/>
       <c r="H14" s="233"/>
-      <c r="I14" s="439" t="s">
+      <c r="I14" s="444" t="s">
         <v>246</v>
       </c>
-      <c r="J14" s="439"/>
-      <c r="K14" s="439"/>
+      <c r="J14" s="444"/>
+      <c r="K14" s="444"/>
       <c r="L14" s="31">
         <v>54000</v>
       </c>
@@ -34376,11 +34379,11 @@
       <c r="F15" s="7"/>
       <c r="G15" s="300"/>
       <c r="H15" s="233"/>
-      <c r="I15" s="423" t="s">
+      <c r="I15" s="428" t="s">
         <v>247</v>
       </c>
-      <c r="J15" s="423"/>
-      <c r="K15" s="423"/>
+      <c r="J15" s="428"/>
+      <c r="K15" s="428"/>
       <c r="L15" s="338">
         <f>L13-L14</f>
         <v>129900</v>
@@ -34457,13 +34460,13 @@
       <c r="R18" s="7"/>
     </row>
     <row r="19" spans="1:18" ht="23.25" thickBot="1">
-      <c r="A19" s="430" t="s">
+      <c r="A19" s="435" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="431"/>
-      <c r="C19" s="431"/>
-      <c r="D19" s="431"/>
-      <c r="E19" s="432"/>
+      <c r="B19" s="436"/>
+      <c r="C19" s="436"/>
+      <c r="D19" s="436"/>
+      <c r="E19" s="437"/>
       <c r="F19" s="5"/>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
@@ -34679,10 +34682,10 @@
         <v>174000</v>
       </c>
       <c r="C29" s="280"/>
-      <c r="D29" s="467" t="s">
+      <c r="D29" s="395" t="s">
         <v>131</v>
       </c>
-      <c r="E29" s="468">
+      <c r="E29" s="396">
         <v>895180</v>
       </c>
       <c r="I29" s="7"/>
@@ -34772,7 +34775,7 @@
       <c r="R32" s="7"/>
     </row>
     <row r="33" spans="1:18" ht="22.5" thickBot="1">
-      <c r="A33" s="469" t="s">
+      <c r="A33" s="397" t="s">
         <v>270</v>
       </c>
       <c r="B33" s="337">
@@ -37601,21 +37604,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="13.5" thickBot="1">
-      <c r="A1" s="445"/>
-      <c r="B1" s="445"/>
-      <c r="C1" s="445"/>
-      <c r="D1" s="445"/>
-      <c r="E1" s="445"/>
-      <c r="F1" s="445"/>
-      <c r="G1" s="445"/>
-      <c r="H1" s="445"/>
-      <c r="I1" s="445"/>
+      <c r="A1" s="460"/>
+      <c r="B1" s="460"/>
+      <c r="C1" s="460"/>
+      <c r="D1" s="460"/>
+      <c r="E1" s="460"/>
+      <c r="F1" s="460"/>
+      <c r="G1" s="460"/>
+      <c r="H1" s="460"/>
+      <c r="I1" s="460"/>
     </row>
     <row r="2" spans="1:9" ht="24" thickBot="1">
-      <c r="A2" s="458" t="s">
+      <c r="A2" s="445" t="s">
         <v>207</v>
       </c>
-      <c r="B2" s="459"/>
+      <c r="B2" s="469"/>
       <c r="C2" s="296">
         <f>C83</f>
         <v>50500</v>
@@ -37628,10 +37631,10 @@
       <c r="I2" s="306"/>
     </row>
     <row r="3" spans="1:9" ht="24" thickBot="1">
-      <c r="A3" s="458" t="s">
+      <c r="A3" s="445" t="s">
         <v>224</v>
       </c>
-      <c r="B3" s="464"/>
+      <c r="B3" s="446"/>
       <c r="C3" s="296">
         <v>53000</v>
       </c>
@@ -37643,10 +37646,10 @@
       <c r="I3" s="306"/>
     </row>
     <row r="4" spans="1:9" ht="24" thickBot="1">
-      <c r="A4" s="458" t="s">
+      <c r="A4" s="445" t="s">
         <v>225</v>
       </c>
-      <c r="B4" s="464"/>
+      <c r="B4" s="446"/>
       <c r="C4" s="310">
         <f>C2-C3</f>
         <v>-2500</v>
@@ -37659,15 +37662,15 @@
       <c r="I4" s="306"/>
     </row>
     <row r="5" spans="1:9" ht="13.5" thickBot="1">
-      <c r="A5" s="445"/>
-      <c r="B5" s="445"/>
-      <c r="C5" s="445"/>
-      <c r="D5" s="445"/>
-      <c r="E5" s="445"/>
-      <c r="F5" s="445"/>
-      <c r="G5" s="445"/>
-      <c r="H5" s="445"/>
-      <c r="I5" s="445"/>
+      <c r="A5" s="460"/>
+      <c r="B5" s="460"/>
+      <c r="C5" s="460"/>
+      <c r="D5" s="460"/>
+      <c r="E5" s="460"/>
+      <c r="F5" s="460"/>
+      <c r="G5" s="460"/>
+      <c r="H5" s="460"/>
+      <c r="I5" s="460"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" thickBot="1">
       <c r="A6" s="256" t="s">
@@ -37707,13 +37710,13 @@
       </c>
       <c r="D7" s="285"/>
       <c r="E7" s="283"/>
-      <c r="G7" s="448">
+      <c r="G7" s="447">
         <v>44684</v>
       </c>
       <c r="H7" s="291" t="s">
         <v>185</v>
       </c>
-      <c r="I7" s="451">
+      <c r="I7" s="449">
         <v>15000</v>
       </c>
     </row>
@@ -37729,11 +37732,11 @@
       </c>
       <c r="D8" s="285"/>
       <c r="E8" s="283"/>
-      <c r="G8" s="448"/>
+      <c r="G8" s="447"/>
       <c r="H8" s="291" t="s">
         <v>186</v>
       </c>
-      <c r="I8" s="451"/>
+      <c r="I8" s="449"/>
     </row>
     <row r="9" spans="1:9" ht="15" thickBot="1">
       <c r="A9" s="277" t="s">
@@ -37747,11 +37750,11 @@
       </c>
       <c r="D9" s="285"/>
       <c r="E9" s="283"/>
-      <c r="G9" s="449"/>
+      <c r="G9" s="448"/>
       <c r="H9" s="292" t="s">
         <v>187</v>
       </c>
-      <c r="I9" s="452"/>
+      <c r="I9" s="450"/>
     </row>
     <row r="10" spans="1:9" ht="12.75" customHeight="1">
       <c r="A10" s="277" t="s">
@@ -37763,13 +37766,13 @@
       </c>
       <c r="D10" s="285"/>
       <c r="E10" s="283"/>
-      <c r="G10" s="448">
+      <c r="G10" s="447">
         <v>44684</v>
       </c>
       <c r="H10" s="291" t="s">
         <v>188</v>
       </c>
-      <c r="I10" s="451">
+      <c r="I10" s="449">
         <v>5500</v>
       </c>
     </row>
@@ -37783,11 +37786,11 @@
       </c>
       <c r="D11" s="285"/>
       <c r="E11" s="283"/>
-      <c r="G11" s="448"/>
+      <c r="G11" s="447"/>
       <c r="H11" s="291" t="s">
         <v>189</v>
       </c>
-      <c r="I11" s="451"/>
+      <c r="I11" s="449"/>
     </row>
     <row r="12" spans="1:9" ht="13.5" customHeight="1" thickBot="1">
       <c r="A12" s="277" t="s">
@@ -37799,11 +37802,11 @@
       </c>
       <c r="D12" s="285"/>
       <c r="E12" s="283"/>
-      <c r="G12" s="449"/>
+      <c r="G12" s="448"/>
       <c r="H12" s="292" t="s">
         <v>187</v>
       </c>
-      <c r="I12" s="452"/>
+      <c r="I12" s="450"/>
     </row>
     <row r="13" spans="1:9" ht="14.25">
       <c r="A13" s="277"/>
@@ -37811,13 +37814,13 @@
       <c r="C13" s="277"/>
       <c r="D13" s="285"/>
       <c r="E13" s="283"/>
-      <c r="G13" s="448">
+      <c r="G13" s="447">
         <v>44684</v>
       </c>
       <c r="H13" s="291" t="s">
         <v>190</v>
       </c>
-      <c r="I13" s="451">
+      <c r="I13" s="449">
         <v>5000</v>
       </c>
     </row>
@@ -37827,11 +37830,11 @@
       <c r="C14" s="255"/>
       <c r="D14" s="285"/>
       <c r="E14" s="283"/>
-      <c r="G14" s="448"/>
+      <c r="G14" s="447"/>
       <c r="H14" s="291" t="s">
         <v>186</v>
       </c>
-      <c r="I14" s="451"/>
+      <c r="I14" s="449"/>
     </row>
     <row r="15" spans="1:9" ht="15" thickBot="1">
       <c r="A15" s="277"/>
@@ -37839,11 +37842,11 @@
       <c r="C15" s="277"/>
       <c r="D15" s="285"/>
       <c r="E15" s="283"/>
-      <c r="G15" s="449"/>
+      <c r="G15" s="448"/>
       <c r="H15" s="292" t="s">
         <v>195</v>
       </c>
-      <c r="I15" s="452"/>
+      <c r="I15" s="450"/>
     </row>
     <row r="16" spans="1:9" ht="14.25">
       <c r="A16" s="255" t="s">
@@ -37857,13 +37860,13 @@
       </c>
       <c r="D16" s="285"/>
       <c r="E16" s="283"/>
-      <c r="G16" s="448">
+      <c r="G16" s="447">
         <v>44684</v>
       </c>
       <c r="H16" s="291" t="s">
         <v>191</v>
       </c>
-      <c r="I16" s="451">
+      <c r="I16" s="449">
         <v>3000</v>
       </c>
     </row>
@@ -37879,11 +37882,11 @@
       </c>
       <c r="D17" s="285"/>
       <c r="E17" s="283"/>
-      <c r="G17" s="448"/>
+      <c r="G17" s="447"/>
       <c r="H17" s="291" t="s">
         <v>192</v>
       </c>
-      <c r="I17" s="451"/>
+      <c r="I17" s="449"/>
     </row>
     <row r="18" spans="1:9" ht="15" thickBot="1">
       <c r="A18" s="255" t="s">
@@ -37897,11 +37900,11 @@
       </c>
       <c r="D18" s="285"/>
       <c r="E18" s="283"/>
-      <c r="G18" s="449"/>
+      <c r="G18" s="448"/>
       <c r="H18" s="292" t="s">
         <v>193</v>
       </c>
-      <c r="I18" s="451"/>
+      <c r="I18" s="449"/>
     </row>
     <row r="19" spans="1:9" ht="14.25">
       <c r="A19" s="255" t="s">
@@ -37915,13 +37918,13 @@
       </c>
       <c r="D19" s="285"/>
       <c r="E19" s="283"/>
-      <c r="G19" s="448" t="s">
+      <c r="G19" s="447" t="s">
         <v>199</v>
       </c>
       <c r="H19" s="291" t="s">
         <v>191</v>
       </c>
-      <c r="I19" s="450">
+      <c r="I19" s="463">
         <v>18000</v>
       </c>
     </row>
@@ -37937,11 +37940,11 @@
       </c>
       <c r="D20" s="285"/>
       <c r="E20" s="283"/>
-      <c r="G20" s="448"/>
+      <c r="G20" s="447"/>
       <c r="H20" s="291" t="s">
         <v>197</v>
       </c>
-      <c r="I20" s="451"/>
+      <c r="I20" s="449"/>
     </row>
     <row r="21" spans="1:9" ht="15" thickBot="1">
       <c r="A21" s="255" t="s">
@@ -37955,11 +37958,11 @@
       </c>
       <c r="D21" s="285"/>
       <c r="E21" s="283"/>
-      <c r="G21" s="449"/>
+      <c r="G21" s="448"/>
       <c r="H21" s="292" t="s">
         <v>198</v>
       </c>
-      <c r="I21" s="452"/>
+      <c r="I21" s="450"/>
     </row>
     <row r="22" spans="1:9" ht="14.25">
       <c r="A22" s="255" t="s">
@@ -37973,13 +37976,13 @@
       </c>
       <c r="D22" s="285"/>
       <c r="E22" s="283"/>
-      <c r="G22" s="448" t="s">
+      <c r="G22" s="447" t="s">
         <v>199</v>
       </c>
       <c r="H22" s="291" t="s">
         <v>191</v>
       </c>
-      <c r="I22" s="451">
+      <c r="I22" s="449">
         <v>7500</v>
       </c>
     </row>
@@ -37995,11 +37998,11 @@
       </c>
       <c r="D23" s="285"/>
       <c r="E23" s="283"/>
-      <c r="G23" s="448"/>
+      <c r="G23" s="447"/>
       <c r="H23" s="291" t="s">
         <v>200</v>
       </c>
-      <c r="I23" s="451"/>
+      <c r="I23" s="449"/>
     </row>
     <row r="24" spans="1:9" ht="15" thickBot="1">
       <c r="A24" s="255" t="s">
@@ -38013,11 +38016,11 @@
       </c>
       <c r="D24" s="285"/>
       <c r="E24" s="283"/>
-      <c r="G24" s="449"/>
+      <c r="G24" s="448"/>
       <c r="H24" s="292" t="s">
         <v>198</v>
       </c>
-      <c r="I24" s="452"/>
+      <c r="I24" s="450"/>
     </row>
     <row r="25" spans="1:9" ht="14.25">
       <c r="A25" s="255" t="s">
@@ -38031,13 +38034,13 @@
       </c>
       <c r="D25" s="285"/>
       <c r="E25" s="283"/>
-      <c r="G25" s="448" t="s">
+      <c r="G25" s="447" t="s">
         <v>199</v>
       </c>
       <c r="H25" s="291" t="s">
         <v>201</v>
       </c>
-      <c r="I25" s="451">
+      <c r="I25" s="449">
         <v>1000</v>
       </c>
     </row>
@@ -38053,11 +38056,11 @@
       </c>
       <c r="D26" s="285"/>
       <c r="E26" s="283"/>
-      <c r="G26" s="448"/>
+      <c r="G26" s="447"/>
       <c r="H26" s="291" t="s">
         <v>202</v>
       </c>
-      <c r="I26" s="451"/>
+      <c r="I26" s="449"/>
     </row>
     <row r="27" spans="1:9" ht="15" thickBot="1">
       <c r="A27" s="255" t="s">
@@ -38071,11 +38074,11 @@
       </c>
       <c r="D27" s="285"/>
       <c r="E27" s="283"/>
-      <c r="G27" s="449"/>
+      <c r="G27" s="448"/>
       <c r="H27" s="292" t="s">
         <v>203</v>
       </c>
-      <c r="I27" s="452"/>
+      <c r="I27" s="450"/>
     </row>
     <row r="28" spans="1:9" ht="14.25">
       <c r="A28" s="255" t="s">
@@ -38089,13 +38092,13 @@
       </c>
       <c r="D28" s="285"/>
       <c r="E28" s="283"/>
-      <c r="G28" s="453" t="s">
+      <c r="G28" s="464" t="s">
         <v>199</v>
       </c>
       <c r="H28" s="294" t="s">
         <v>185</v>
       </c>
-      <c r="I28" s="455">
+      <c r="I28" s="466">
         <v>-2000</v>
       </c>
     </row>
@@ -38115,11 +38118,11 @@
       <c r="E29" s="283">
         <v>357484290824718</v>
       </c>
-      <c r="G29" s="453"/>
+      <c r="G29" s="464"/>
       <c r="H29" s="294" t="s">
         <v>204</v>
       </c>
-      <c r="I29" s="456"/>
+      <c r="I29" s="467"/>
     </row>
     <row r="30" spans="1:9" ht="15" thickBot="1">
       <c r="A30" s="255" t="s">
@@ -38135,11 +38138,11 @@
         <v>162</v>
       </c>
       <c r="E30" s="283"/>
-      <c r="G30" s="454"/>
+      <c r="G30" s="465"/>
       <c r="H30" s="295" t="s">
         <v>205</v>
       </c>
-      <c r="I30" s="457"/>
+      <c r="I30" s="468"/>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickBot="1">
       <c r="A31" s="255" t="s">
@@ -38155,10 +38158,10 @@
         <v>164</v>
       </c>
       <c r="E31" s="283"/>
-      <c r="G31" s="446" t="s">
+      <c r="G31" s="461" t="s">
         <v>196</v>
       </c>
-      <c r="H31" s="447"/>
+      <c r="H31" s="462"/>
       <c r="I31" s="307">
         <f>SUM(I7:I30)</f>
         <v>53000</v>
@@ -38178,10 +38181,10 @@
         <v>171</v>
       </c>
       <c r="E32" s="283"/>
-      <c r="G32" s="462" t="s">
+      <c r="G32" s="458" t="s">
         <v>222</v>
       </c>
-      <c r="H32" s="463"/>
+      <c r="H32" s="459"/>
       <c r="I32" s="308">
         <f>I52</f>
         <v>37500</v>
@@ -38203,10 +38206,10 @@
       <c r="E33" s="283">
         <v>354551892947593</v>
       </c>
-      <c r="G33" s="460" t="s">
+      <c r="G33" s="456" t="s">
         <v>223</v>
       </c>
-      <c r="H33" s="461"/>
+      <c r="H33" s="457"/>
       <c r="I33" s="309">
         <f>I31-I32</f>
         <v>15500</v>
@@ -38254,16 +38257,16 @@
       <c r="E36" s="283">
         <v>357484290920474</v>
       </c>
-      <c r="G36" s="440" t="s">
+      <c r="G36" s="453" t="s">
         <v>252</v>
       </c>
-      <c r="H36" s="441"/>
-      <c r="I36" s="442"/>
-      <c r="K36" s="440" t="s">
+      <c r="H36" s="454"/>
+      <c r="I36" s="455"/>
+      <c r="K36" s="453" t="s">
         <v>257</v>
       </c>
-      <c r="L36" s="441"/>
-      <c r="M36" s="442"/>
+      <c r="L36" s="454"/>
+      <c r="M36" s="455"/>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="255" t="s">
@@ -38632,18 +38635,18 @@
       <c r="C52" s="255"/>
       <c r="D52" s="285"/>
       <c r="E52" s="283"/>
-      <c r="G52" s="443" t="s">
+      <c r="G52" s="451" t="s">
         <v>92</v>
       </c>
-      <c r="H52" s="444"/>
+      <c r="H52" s="452"/>
       <c r="I52" s="315">
         <f>SUM(I38:I51)</f>
         <v>37500</v>
       </c>
-      <c r="K52" s="443" t="s">
+      <c r="K52" s="451" t="s">
         <v>92</v>
       </c>
-      <c r="L52" s="444"/>
+      <c r="L52" s="452"/>
       <c r="M52" s="315">
         <f>SUM(M38:M51)</f>
         <v>27000</v>
@@ -38874,18 +38877,6 @@
     <sortCondition ref="A8"/>
   </sortState>
   <mergeCells count="28">
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="G10:G12"/>
-    <mergeCell ref="I10:I12"/>
-    <mergeCell ref="G13:G15"/>
-    <mergeCell ref="I13:I15"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G32:H32"/>
     <mergeCell ref="K36:M36"/>
     <mergeCell ref="K52:L52"/>
     <mergeCell ref="A1:I1"/>
@@ -38902,6 +38893,18 @@
     <mergeCell ref="I28:I30"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A5:I5"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="I10:I12"/>
+    <mergeCell ref="G13:G15"/>
+    <mergeCell ref="I13:I15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -38927,18 +38930,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="13.5" thickBot="1">
-      <c r="A1" s="445"/>
-      <c r="B1" s="445"/>
-      <c r="C1" s="445"/>
-      <c r="D1" s="445"/>
-      <c r="E1" s="445"/>
-      <c r="F1" s="445"/>
+      <c r="A1" s="460"/>
+      <c r="B1" s="460"/>
+      <c r="C1" s="460"/>
+      <c r="D1" s="460"/>
+      <c r="E1" s="460"/>
+      <c r="F1" s="460"/>
     </row>
     <row r="2" spans="1:6" ht="24" thickBot="1">
-      <c r="A2" s="458" t="s">
+      <c r="A2" s="445" t="s">
         <v>207</v>
       </c>
-      <c r="B2" s="459"/>
+      <c r="B2" s="469"/>
       <c r="C2" s="296">
         <f>C81</f>
         <v>24000</v>
@@ -38948,12 +38951,12 @@
       <c r="F2" s="306"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="445"/>
-      <c r="B3" s="445"/>
-      <c r="C3" s="445"/>
-      <c r="D3" s="445"/>
-      <c r="E3" s="445"/>
-      <c r="F3" s="445"/>
+      <c r="A3" s="460"/>
+      <c r="B3" s="460"/>
+      <c r="C3" s="460"/>
+      <c r="D3" s="460"/>
+      <c r="E3" s="460"/>
+      <c r="F3" s="460"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="256" t="s">
